--- a/Data/cattle_trade.xlsx
+++ b/Data/cattle_trade.xlsx
@@ -471,7 +471,7 @@
     <t>country</t>
   </si>
   <si>
-    <t>total</t>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -580,10 +580,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ116"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117:C118"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -989,7 +989,7 @@
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>23650</v>
       </c>
       <c r="C2" s="5">
@@ -1095,7 +1095,7 @@
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>124937</v>
       </c>
       <c r="C3" s="5">
@@ -1201,7 +1201,7 @@
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1269,7 +1269,7 @@
       <c r="A5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>69</v>
       </c>
       <c r="C5" s="4"/>
@@ -1347,7 +1347,7 @@
       <c r="A6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1405,7 +1405,7 @@
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="11">
         <v>5259</v>
       </c>
       <c r="C7" s="5">
@@ -1501,7 +1501,7 @@
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>180</v>
       </c>
       <c r="C8" s="5">
@@ -1579,7 +1579,7 @@
       <c r="A9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>3424</v>
       </c>
       <c r="C9" s="5">
@@ -1673,7 +1673,7 @@
       <c r="A10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1725,7 +1725,7 @@
       <c r="A11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="5">
         <v>525</v>
       </c>
@@ -1791,7 +1791,7 @@
       <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="11">
         <v>1155</v>
       </c>
       <c r="C12" s="5">
@@ -1877,7 +1877,7 @@
       <c r="A13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1933,7 +1933,7 @@
       <c r="A14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="11">
         <v>482</v>
       </c>
       <c r="C14" s="5">
@@ -2027,7 +2027,7 @@
       <c r="A15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="11">
         <v>1178</v>
       </c>
       <c r="C15" s="5">
@@ -2111,7 +2111,7 @@
       <c r="A16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2161,7 +2161,7 @@
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="11">
         <v>84</v>
       </c>
       <c r="C17" s="5">
@@ -2237,7 +2237,7 @@
       <c r="A18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="11">
         <v>2891</v>
       </c>
       <c r="C18" s="5">
@@ -2317,7 +2317,7 @@
       <c r="A19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2365,7 +2365,7 @@
       <c r="A20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5">
@@ -2413,7 +2413,7 @@
       <c r="A21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="11">
         <v>800</v>
       </c>
       <c r="C21" s="4"/>
@@ -2461,7 +2461,7 @@
       <c r="A22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -2515,7 +2515,7 @@
       <c r="A23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="11">
         <v>787</v>
       </c>
       <c r="C23" s="5">
@@ -2607,7 +2607,7 @@
       <c r="A24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="11">
         <v>43</v>
       </c>
       <c r="C24" s="4"/>
@@ -2679,7 +2679,7 @@
       <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="11">
         <v>56</v>
       </c>
       <c r="C25" s="5">
@@ -2751,7 +2751,7 @@
       <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5">
         <v>3</v>
@@ -2847,7 +2847,7 @@
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -2889,7 +2889,7 @@
       <c r="A28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="11">
         <v>51</v>
       </c>
       <c r="C28" s="5">
@@ -2957,7 +2957,7 @@
       <c r="A29" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5">
         <v>21</v>
@@ -3029,7 +3029,7 @@
       <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5">
         <v>503</v>
@@ -3075,7 +3075,7 @@
       <c r="A31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="11">
         <v>725</v>
       </c>
       <c r="C31" s="5">
@@ -3147,7 +3147,7 @@
       <c r="A32" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="11"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3189,7 +3189,7 @@
       <c r="A33" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="11">
         <v>120</v>
       </c>
       <c r="C33" s="5">
@@ -3281,7 +3281,7 @@
       <c r="A34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="11">
         <v>1494</v>
       </c>
       <c r="C34" s="4"/>
@@ -3325,7 +3325,7 @@
       <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="11"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5">
@@ -3397,7 +3397,7 @@
       <c r="A36" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="11">
         <v>198</v>
       </c>
       <c r="C36" s="5">
@@ -3465,7 +3465,7 @@
       <c r="A37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3515,7 +3515,7 @@
       <c r="A38" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="11">
         <v>242</v>
       </c>
       <c r="C38" s="4"/>
@@ -3581,7 +3581,7 @@
       <c r="A39" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="11">
         <v>900</v>
       </c>
       <c r="C39" s="5">
@@ -3637,7 +3637,7 @@
       <c r="A40" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="11"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="4"/>
       <c r="D40" s="5">
         <v>11</v>
@@ -3699,7 +3699,7 @@
       <c r="A41" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -3747,7 +3747,7 @@
       <c r="A42" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="11">
         <v>26</v>
       </c>
       <c r="C42" s="5">
@@ -3835,7 +3835,7 @@
       <c r="A43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="11"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -3901,7 +3901,7 @@
       <c r="A44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="11">
         <v>2</v>
       </c>
       <c r="C44" s="5">
@@ -3977,7 +3977,7 @@
       <c r="A45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="11"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="5">
         <v>220</v>
       </c>
@@ -4059,7 +4059,7 @@
       <c r="A46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="11"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="5">
         <v>542</v>
       </c>
@@ -4107,7 +4107,7 @@
       <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="11"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="5">
         <v>50</v>
       </c>
@@ -4179,7 +4179,7 @@
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="11"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="5">
         <v>152</v>
       </c>
@@ -4235,7 +4235,7 @@
       <c r="A49" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="11"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="5">
@@ -4293,7 +4293,7 @@
       <c r="A50" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="11"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -4355,7 +4355,7 @@
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="11"/>
+      <c r="B51" s="10"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5">
@@ -4399,7 +4399,7 @@
       <c r="A52" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="11"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -4461,7 +4461,7 @@
       <c r="A53" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="11">
         <v>10</v>
       </c>
       <c r="C53" s="5">
@@ -4529,7 +4529,7 @@
       <c r="A54" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="11">
         <v>102</v>
       </c>
       <c r="C54" s="5">
@@ -4581,7 +4581,7 @@
       <c r="A55" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="11"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -4633,7 +4633,7 @@
       <c r="A56" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="11"/>
+      <c r="B56" s="10"/>
       <c r="C56" s="4"/>
       <c r="D56" s="5">
         <v>274</v>
@@ -4677,7 +4677,7 @@
       <c r="A57" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="11"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="4"/>
       <c r="D57" s="5">
         <v>251</v>
@@ -4721,7 +4721,7 @@
       <c r="A58" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="11"/>
+      <c r="B58" s="10"/>
       <c r="C58" s="5">
         <v>288</v>
       </c>
@@ -4773,7 +4773,7 @@
       <c r="A59" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="11"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -4827,7 +4827,7 @@
       <c r="A60" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -4881,7 +4881,7 @@
       <c r="A61" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="11">
         <v>35</v>
       </c>
       <c r="C61" s="4"/>
@@ -4947,7 +4947,7 @@
       <c r="A62" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="11"/>
+      <c r="B62" s="10"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -4991,7 +4991,7 @@
       <c r="A63" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B63" s="11"/>
+      <c r="B63" s="10"/>
       <c r="C63" s="5">
         <v>21</v>
       </c>
@@ -5049,7 +5049,7 @@
       <c r="A64" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B64" s="11"/>
+      <c r="B64" s="10"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="5">
@@ -5099,7 +5099,7 @@
       <c r="A65" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B65" s="11"/>
+      <c r="B65" s="10"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -5147,7 +5147,7 @@
       <c r="A66" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B66" s="11"/>
+      <c r="B66" s="10"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -5189,7 +5189,7 @@
       <c r="A67" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B67" s="11"/>
+      <c r="B67" s="10"/>
       <c r="C67" s="5">
         <v>180</v>
       </c>
@@ -5235,7 +5235,7 @@
       <c r="A68" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B68" s="11"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="5">
         <v>173</v>
       </c>
@@ -5283,7 +5283,7 @@
       <c r="A69" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="11"/>
+      <c r="B69" s="10"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -5339,7 +5339,7 @@
       <c r="A70" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B70" s="11"/>
+      <c r="B70" s="10"/>
       <c r="C70" s="4"/>
       <c r="D70" s="5">
         <v>123</v>
@@ -5391,7 +5391,7 @@
       <c r="A71" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B71" s="11"/>
+      <c r="B71" s="10"/>
       <c r="C71" s="5">
         <v>5</v>
       </c>
@@ -5451,7 +5451,7 @@
       <c r="A72" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B72" s="11"/>
+      <c r="B72" s="10"/>
       <c r="C72" s="4"/>
       <c r="D72" s="5">
         <v>3</v>
@@ -5507,7 +5507,7 @@
       <c r="A73" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="11">
         <v>67</v>
       </c>
       <c r="C73" s="5">
@@ -5561,7 +5561,7 @@
       <c r="A74" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="11">
         <v>40</v>
       </c>
       <c r="C74" s="4"/>
@@ -5613,7 +5613,7 @@
       <c r="A75" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="11">
         <v>56</v>
       </c>
       <c r="C75" s="4"/>
@@ -5671,7 +5671,7 @@
       <c r="A76" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B76" s="11"/>
+      <c r="B76" s="10"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -5727,7 +5727,7 @@
       <c r="A77" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="11">
         <v>4</v>
       </c>
       <c r="C77" s="4"/>
@@ -5779,7 +5779,7 @@
       <c r="A78" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="11"/>
+      <c r="B78" s="10"/>
       <c r="C78" s="4"/>
       <c r="D78" s="5">
         <v>8</v>
@@ -5827,7 +5827,7 @@
       <c r="A79" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="11"/>
+      <c r="B79" s="10"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -5869,7 +5869,7 @@
       <c r="A80" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="11"/>
+      <c r="B80" s="10"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -5925,7 +5925,7 @@
       <c r="A81" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="11">
         <v>20</v>
       </c>
       <c r="C81" s="5">
@@ -5969,7 +5969,7 @@
       <c r="A82" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B82" s="11"/>
+      <c r="B82" s="10"/>
       <c r="C82" s="5">
         <v>8</v>
       </c>
@@ -6021,7 +6021,7 @@
       <c r="A83" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83" s="11">
         <v>25</v>
       </c>
       <c r="C83" s="4"/>
@@ -6067,7 +6067,7 @@
       <c r="A84" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B84" s="11"/>
+      <c r="B84" s="10"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -6115,7 +6115,7 @@
       <c r="A85" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B85" s="11"/>
+      <c r="B85" s="10"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -6157,7 +6157,7 @@
       <c r="A86" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B86" s="11"/>
+      <c r="B86" s="10"/>
       <c r="C86" s="5">
         <v>10</v>
       </c>
@@ -6209,7 +6209,7 @@
       <c r="A87" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B87" s="11"/>
+      <c r="B87" s="10"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -6251,7 +6251,7 @@
       <c r="A88" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B88" s="11"/>
+      <c r="B88" s="10"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -6295,7 +6295,7 @@
       <c r="A89" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B89" s="11"/>
+      <c r="B89" s="10"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -6337,7 +6337,7 @@
       <c r="A90" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B90" s="11"/>
+      <c r="B90" s="10"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -6379,7 +6379,7 @@
       <c r="A91" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B91" s="11"/>
+      <c r="B91" s="10"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -6427,7 +6427,7 @@
       <c r="A92" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92" s="11">
         <v>17</v>
       </c>
       <c r="C92" s="4"/>
@@ -6471,7 +6471,7 @@
       <c r="A93" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B93" s="11"/>
+      <c r="B93" s="10"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -6517,7 +6517,7 @@
       <c r="A94" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B94" s="11"/>
+      <c r="B94" s="10"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5">
@@ -6563,7 +6563,7 @@
       <c r="A95" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B95" s="11"/>
+      <c r="B95" s="10"/>
       <c r="C95" s="5">
         <v>32</v>
       </c>
@@ -6605,7 +6605,7 @@
       <c r="A96" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="11">
         <v>10</v>
       </c>
       <c r="C96" s="5">
@@ -6651,7 +6651,7 @@
       <c r="A97" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B97" s="11"/>
+      <c r="B97" s="10"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -6699,7 +6699,7 @@
       <c r="A98" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B98" s="11"/>
+      <c r="B98" s="10"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -6747,7 +6747,7 @@
       <c r="A99" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B99" s="11"/>
+      <c r="B99" s="10"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -6789,7 +6789,7 @@
       <c r="A100" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B100" s="11"/>
+      <c r="B100" s="10"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -6831,7 +6831,7 @@
       <c r="A101" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B101" s="11"/>
+      <c r="B101" s="10"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -6873,7 +6873,7 @@
       <c r="A102" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B102" s="11"/>
+      <c r="B102" s="10"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -6917,7 +6917,7 @@
       <c r="A103" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B103" s="11"/>
+      <c r="B103" s="10"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -6959,7 +6959,7 @@
       <c r="A104" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B104" s="11"/>
+      <c r="B104" s="10"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -7001,7 +7001,7 @@
       <c r="A105" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B105" s="10">
+      <c r="B105" s="11">
         <v>1</v>
       </c>
       <c r="C105" s="4"/>
@@ -7047,7 +7047,7 @@
       <c r="A106" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B106" s="11"/>
+      <c r="B106" s="10"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -7089,7 +7089,7 @@
       <c r="A107" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B107" s="11"/>
+      <c r="B107" s="10"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -7133,7 +7133,7 @@
       <c r="A108" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B108" s="11"/>
+      <c r="B108" s="10"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -7175,13 +7175,13 @@
       <c r="A109" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B109" s="11"/>
+      <c r="B109" s="10"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
-      <c r="H109" s="11"/>
+      <c r="H109" s="10"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
@@ -7217,13 +7217,13 @@
       <c r="A110" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B110" s="11"/>
+      <c r="B110" s="10"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
-      <c r="H110" s="11"/>
+      <c r="H110" s="10"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
@@ -7259,13 +7259,13 @@
       <c r="A111" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B111" s="11"/>
+      <c r="B111" s="10"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
-      <c r="H111" s="11"/>
+      <c r="H111" s="10"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
@@ -7557,102 +7557,15 @@
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="B11"/>
-    <mergeCell ref="B12"/>
-    <mergeCell ref="B13"/>
-    <mergeCell ref="B14"/>
-    <mergeCell ref="B15"/>
-    <mergeCell ref="B16"/>
-    <mergeCell ref="B22"/>
-    <mergeCell ref="B23"/>
-    <mergeCell ref="B24"/>
-    <mergeCell ref="B25"/>
-    <mergeCell ref="B26"/>
-    <mergeCell ref="B17"/>
-    <mergeCell ref="B18"/>
-    <mergeCell ref="B19"/>
-    <mergeCell ref="B20"/>
-    <mergeCell ref="B21"/>
-    <mergeCell ref="B32"/>
-    <mergeCell ref="B33"/>
-    <mergeCell ref="B34"/>
-    <mergeCell ref="B35"/>
-    <mergeCell ref="B36"/>
-    <mergeCell ref="B27"/>
-    <mergeCell ref="B28"/>
-    <mergeCell ref="B29"/>
-    <mergeCell ref="B30"/>
-    <mergeCell ref="B31"/>
-    <mergeCell ref="B42"/>
-    <mergeCell ref="B43"/>
-    <mergeCell ref="B44"/>
-    <mergeCell ref="B45"/>
-    <mergeCell ref="B46"/>
-    <mergeCell ref="B37"/>
-    <mergeCell ref="B38"/>
-    <mergeCell ref="B39"/>
-    <mergeCell ref="B40"/>
-    <mergeCell ref="B41"/>
-    <mergeCell ref="B52"/>
-    <mergeCell ref="B53"/>
-    <mergeCell ref="B54"/>
-    <mergeCell ref="B55"/>
-    <mergeCell ref="B56"/>
-    <mergeCell ref="B47"/>
-    <mergeCell ref="B48"/>
-    <mergeCell ref="B49"/>
-    <mergeCell ref="B50"/>
-    <mergeCell ref="B51"/>
-    <mergeCell ref="B62"/>
-    <mergeCell ref="B63"/>
-    <mergeCell ref="B64"/>
-    <mergeCell ref="B65"/>
-    <mergeCell ref="B66"/>
-    <mergeCell ref="B57"/>
-    <mergeCell ref="B58"/>
-    <mergeCell ref="B59"/>
-    <mergeCell ref="B60"/>
-    <mergeCell ref="B61"/>
-    <mergeCell ref="B72"/>
-    <mergeCell ref="B73"/>
-    <mergeCell ref="B74"/>
-    <mergeCell ref="B75"/>
-    <mergeCell ref="B76"/>
-    <mergeCell ref="B67"/>
-    <mergeCell ref="B68"/>
-    <mergeCell ref="B69"/>
-    <mergeCell ref="B70"/>
-    <mergeCell ref="B71"/>
-    <mergeCell ref="B82"/>
-    <mergeCell ref="B83"/>
-    <mergeCell ref="B84"/>
-    <mergeCell ref="B85"/>
-    <mergeCell ref="B86"/>
-    <mergeCell ref="B77"/>
-    <mergeCell ref="B78"/>
-    <mergeCell ref="B79"/>
-    <mergeCell ref="B80"/>
-    <mergeCell ref="B81"/>
-    <mergeCell ref="B92"/>
-    <mergeCell ref="B93"/>
-    <mergeCell ref="B94"/>
-    <mergeCell ref="B95"/>
-    <mergeCell ref="B96"/>
-    <mergeCell ref="B87"/>
-    <mergeCell ref="B88"/>
-    <mergeCell ref="B89"/>
-    <mergeCell ref="B90"/>
-    <mergeCell ref="B91"/>
-    <mergeCell ref="B102"/>
-    <mergeCell ref="B103"/>
-    <mergeCell ref="B104"/>
-    <mergeCell ref="B105"/>
-    <mergeCell ref="B106"/>
-    <mergeCell ref="B97"/>
-    <mergeCell ref="B98"/>
-    <mergeCell ref="B99"/>
-    <mergeCell ref="B100"/>
-    <mergeCell ref="B101"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="B6"/>
+    <mergeCell ref="B7"/>
+    <mergeCell ref="B8"/>
+    <mergeCell ref="B9"/>
+    <mergeCell ref="B10"/>
     <mergeCell ref="A114:H114"/>
     <mergeCell ref="A115:H115"/>
     <mergeCell ref="A116:B116"/>
@@ -7667,15 +7580,102 @@
     <mergeCell ref="H109"/>
     <mergeCell ref="B110"/>
     <mergeCell ref="H110"/>
-    <mergeCell ref="B2"/>
-    <mergeCell ref="B3"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="B5"/>
-    <mergeCell ref="B6"/>
-    <mergeCell ref="B7"/>
-    <mergeCell ref="B8"/>
-    <mergeCell ref="B9"/>
-    <mergeCell ref="B10"/>
+    <mergeCell ref="B102"/>
+    <mergeCell ref="B103"/>
+    <mergeCell ref="B104"/>
+    <mergeCell ref="B105"/>
+    <mergeCell ref="B106"/>
+    <mergeCell ref="B97"/>
+    <mergeCell ref="B98"/>
+    <mergeCell ref="B99"/>
+    <mergeCell ref="B100"/>
+    <mergeCell ref="B101"/>
+    <mergeCell ref="B92"/>
+    <mergeCell ref="B93"/>
+    <mergeCell ref="B94"/>
+    <mergeCell ref="B95"/>
+    <mergeCell ref="B96"/>
+    <mergeCell ref="B87"/>
+    <mergeCell ref="B88"/>
+    <mergeCell ref="B89"/>
+    <mergeCell ref="B90"/>
+    <mergeCell ref="B91"/>
+    <mergeCell ref="B82"/>
+    <mergeCell ref="B83"/>
+    <mergeCell ref="B84"/>
+    <mergeCell ref="B85"/>
+    <mergeCell ref="B86"/>
+    <mergeCell ref="B77"/>
+    <mergeCell ref="B78"/>
+    <mergeCell ref="B79"/>
+    <mergeCell ref="B80"/>
+    <mergeCell ref="B81"/>
+    <mergeCell ref="B72"/>
+    <mergeCell ref="B73"/>
+    <mergeCell ref="B74"/>
+    <mergeCell ref="B75"/>
+    <mergeCell ref="B76"/>
+    <mergeCell ref="B67"/>
+    <mergeCell ref="B68"/>
+    <mergeCell ref="B69"/>
+    <mergeCell ref="B70"/>
+    <mergeCell ref="B71"/>
+    <mergeCell ref="B62"/>
+    <mergeCell ref="B63"/>
+    <mergeCell ref="B64"/>
+    <mergeCell ref="B65"/>
+    <mergeCell ref="B66"/>
+    <mergeCell ref="B57"/>
+    <mergeCell ref="B58"/>
+    <mergeCell ref="B59"/>
+    <mergeCell ref="B60"/>
+    <mergeCell ref="B61"/>
+    <mergeCell ref="B52"/>
+    <mergeCell ref="B53"/>
+    <mergeCell ref="B54"/>
+    <mergeCell ref="B55"/>
+    <mergeCell ref="B56"/>
+    <mergeCell ref="B47"/>
+    <mergeCell ref="B48"/>
+    <mergeCell ref="B49"/>
+    <mergeCell ref="B50"/>
+    <mergeCell ref="B51"/>
+    <mergeCell ref="B43"/>
+    <mergeCell ref="B44"/>
+    <mergeCell ref="B45"/>
+    <mergeCell ref="B46"/>
+    <mergeCell ref="B37"/>
+    <mergeCell ref="B38"/>
+    <mergeCell ref="B39"/>
+    <mergeCell ref="B40"/>
+    <mergeCell ref="B41"/>
+    <mergeCell ref="B34"/>
+    <mergeCell ref="B35"/>
+    <mergeCell ref="B36"/>
+    <mergeCell ref="B27"/>
+    <mergeCell ref="B28"/>
+    <mergeCell ref="B29"/>
+    <mergeCell ref="B30"/>
+    <mergeCell ref="B31"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="B25"/>
+    <mergeCell ref="B26"/>
+    <mergeCell ref="B17"/>
+    <mergeCell ref="B18"/>
+    <mergeCell ref="B19"/>
+    <mergeCell ref="B20"/>
+    <mergeCell ref="B21"/>
+    <mergeCell ref="B32"/>
+    <mergeCell ref="B33"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="B12"/>
+    <mergeCell ref="B13"/>
+    <mergeCell ref="B14"/>
+    <mergeCell ref="B15"/>
+    <mergeCell ref="B16"/>
+    <mergeCell ref="B22"/>
+    <mergeCell ref="B23"/>
+    <mergeCell ref="B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7685,8 +7685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
